--- a/RNASeq/5_analysis_DESeq2/data_l2fc_p_goi_231219.xlsx
+++ b/RNASeq/5_analysis_DESeq2/data_l2fc_p_goi_231219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,16 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>padj</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>padj_rounded</t>
         </is>
       </c>
@@ -460,9 +470,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.045</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>-0.0451539186994432</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.159408730460989</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.653087455529075</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.5e-01</t>
         </is>
@@ -470,215 +486,331 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cacna1b</t>
+          <t>Cacna1e</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.9e-01</t>
+        <v>-7.17377962642619e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.990796790510289</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1290</v>
+        <v>673</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>Cacna1b</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.4e-01</t>
+        <v>0.0016991384174586</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.876377460704732</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9850030225099</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.9e-01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1674</v>
+        <v>1290</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cacna1d</t>
+          <t>Cacna2d2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.8e-01</t>
+        <v>0.0060664263603634</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.643935011057075</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.93802885142534</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.4e-01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1793</v>
+        <v>1674</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cacnb4</t>
+          <t>Cacna1d</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.6e-01</t>
+        <v>0.0031632739975509</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8175124453189641</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.975517427992439</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.8e-01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2768</v>
+        <v>1793</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cacna1g</t>
+          <t>Cacnb4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.9e-01</t>
+        <v>-0.0078752779650413</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.166061394160824</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.662931725545103</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.6e-01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2780</v>
+        <v>2768</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cacnb1</t>
+          <t>Cacna1g</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.5e-01</t>
+        <v>0.0058357652808202</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.491884029013724</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.886577486694559</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.9e-01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3640</v>
+        <v>2780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cacna1i</t>
+          <t>Cacnb1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.2e-01</t>
+        <v>-0.0121562182832141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.420446727915028</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.854827340201159</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.5e-01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4278</v>
+        <v>3640</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cacna1h</t>
+          <t>Cacna1i</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.348</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.9e-05</t>
+        <v>0.0052322371028311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.592876281026411</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.919850219453233</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.2e-01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9696</v>
+        <v>4278</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cacna1a</t>
+          <t>Cacna1h</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.014</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.6e-01</t>
+        <v>-1.34824966000856</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.09051873821698e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.85171218338237e-05</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.9e-05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11696</v>
+        <v>8133</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cacna2d1</t>
+          <t>Cacna1f</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.239</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.6e-01</t>
+        <v>-0.0007403099831444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8345241438150039</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14851</v>
+        <v>9696</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cacna1c</t>
+          <t>Cacna1a</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.7e-01</t>
+        <v>-0.014263372374084</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.164042660530353</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.660347151005693</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.6e-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>11696</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cacna2d1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.239178976722988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0052508226450369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.155195862613141</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.6e-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14851</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cacna1c</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0373008547597143</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.268399281700796</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.770838753893913</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.7e-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>16147</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Cacnb2</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>-0.139</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C16" t="n">
+        <v>-0.138824410984268</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0175423111891247</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.26899025285958</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.7e-01</t>
         </is>
